--- a/Диплом/Tables.xlsx
+++ b/Диплом/Tables.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Статья\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\Diplom-work\Диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D83729-E076-4BA7-B55F-F9A17930F6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE41730-C10A-42F3-953A-711C3BED57CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{E9B65004-8967-46C9-AB65-63986D19EA5A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{E9B65004-8967-46C9-AB65-63986D19EA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>100.0</t>
   </si>
@@ -543,13 +544,76 @@
   </si>
   <si>
     <t>1e-4 - 1e-2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%mass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[g/ml]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E vis
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[kJ/mol]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vis 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[cP]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +731,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -905,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1092,6 +1181,51 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1125,31 +1259,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,63 +1301,34 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1531,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659A9D16-6301-4129-96AB-EEE48F2A0FBF}">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1682,7 @@
       <c r="O2" s="46"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="79" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -1592,7 +1706,7 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
@@ -1614,7 +1728,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="28" t="s">
         <v>59</v>
       </c>
@@ -1636,7 +1750,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="12" t="s">
         <v>56</v>
       </c>
@@ -1658,7 +1772,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="31" t="s">
         <v>51</v>
       </c>
@@ -1680,7 +1794,7 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="85" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -1704,7 +1818,7 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
@@ -1726,7 +1840,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1862,7 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="11" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1884,7 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="19" t="s">
         <v>54</v>
       </c>
@@ -1792,7 +1906,7 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="11" t="s">
         <v>55</v>
       </c>
@@ -1814,7 +1928,7 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="19" t="s">
         <v>56</v>
       </c>
@@ -1836,7 +1950,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="11" t="s">
         <v>57</v>
       </c>
@@ -1858,7 +1972,7 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="22" t="s">
         <v>33</v>
       </c>
@@ -1880,7 +1994,7 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="82" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -1904,7 +2018,7 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="68"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
@@ -1926,7 +2040,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="37" t="s">
         <v>49</v>
       </c>
@@ -1948,7 +2062,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
@@ -1970,7 +2084,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="40" t="s">
         <v>51</v>
       </c>
@@ -2042,10 +2156,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152CAC07-9274-4897-B101-B908528F6144}">
+  <dimension ref="B2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="113" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE0579B-CCAF-41EA-994E-4575EA822D58}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G6"/>
     </sheetView>
   </sheetViews>
@@ -2056,94 +2274,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="95" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="74" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="96" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="101" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="97" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="76" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="98" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="103" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="77" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="99" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="78" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
